--- a/Excel/GameSceneConfig.xlsx
+++ b/Excel/GameSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Software\Unity\UnityProject\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F13E382-9C27-4DFF-AC60-4919BF86417B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A13020F-6A3E-407A-8122-77083B37B476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" xr2:uid="{67A32067-95B0-4D47-8E31-EDDCB1EE1E26}"/>
+    <workbookView xWindow="315" yWindow="780" windowWidth="23190" windowHeight="13200" xr2:uid="{67A32067-95B0-4D47-8E31-EDDCB1EE1E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>第一次加载使用场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +455,7 @@
   <dimension ref="C2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,9 +526,13 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>

--- a/Excel/GameSceneConfig.xlsx
+++ b/Excel/GameSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A13020F-6A3E-407A-8122-77083B37B476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFF2650-9538-46F0-9698-03AF526D47B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="780" windowWidth="23190" windowHeight="13200" xr2:uid="{67A32067-95B0-4D47-8E31-EDDCB1EE1E26}"/>
+    <workbookView xWindow="3015" yWindow="1395" windowWidth="21600" windowHeight="12630" xr2:uid="{67A32067-95B0-4D47-8E31-EDDCB1EE1E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>Field01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field01的室内场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +463,7 @@
   <dimension ref="C2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -539,9 +547,15 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>

--- a/Excel/GameSceneConfig.xlsx
+++ b/Excel/GameSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFF2650-9538-46F0-9698-03AF526D47B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC3C7E-AD39-410E-9C30-DE56EA8BCD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1395" windowWidth="21600" windowHeight="12630" xr2:uid="{67A32067-95B0-4D47-8E31-EDDCB1EE1E26}"/>
+    <workbookView xWindow="2505" yWindow="2250" windowWidth="22275" windowHeight="12300" xr2:uid="{67A32067-95B0-4D47-8E31-EDDCB1EE1E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>Field02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景内NPC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCsInScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -463,13 +475,14 @@
   <dimension ref="C2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.2">
@@ -487,7 +500,9 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -500,7 +515,9 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -513,7 +530,9 @@
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -541,7 +560,9 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>1002</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
